--- a/SOCE.Library/SOCE.Library.UI/Resources/InvoiceTemplate.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/InvoiceTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA0BE5-1891-42EC-BA28-EDEB2673D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19179E-BD24-48C7-9D2F-A599E67F72E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{839FF4F4-9282-43EB-8C91-51348A4669B0}"/>
+    <workbookView xWindow="35010" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{839FF4F4-9282-43EB-8C91-51348A4669B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -255,7 +256,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,15 +287,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -310,9 +302,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,15 +335,12 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -373,6 +359,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA70703-3522-E314-8422-2F650DA85526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3070412" cy="520530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178734</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>637054</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>154649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF1295-EAD5-EB8E-0656-EAED09993381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="178734" y="8127828"/>
+          <a:ext cx="5535145" cy="294521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE36784-544C-4289-B6CB-462432BFC5BC}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +826,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -769,10 +860,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -929,88 +1020,79 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1018,7 +1100,8 @@
   <mergeCells count="1">
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>